--- a/Bases_de_Dados_(2006-2021)/Estonia Meistriliiga_2020.xlsx
+++ b/Bases_de_Dados_(2006-2021)/Estonia Meistriliiga_2020.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ148"/>
+  <dimension ref="A1:BP148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,6 +698,86 @@
           <t>Shots_A</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_H_FT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_A_FT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>TotalCorners_FT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_H</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_D</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_A</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over75</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under75</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over85</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under85</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over95</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under95</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over105</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under105</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over115</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under115</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -868,6 +948,54 @@
       <c r="AZ2" t="n">
         <v>7</v>
       </c>
+      <c r="BA2" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1037,6 +1165,54 @@
       </c>
       <c r="AZ3" t="n">
         <v>7</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1208,6 +1384,54 @@
       <c r="AZ4" t="n">
         <v>7</v>
       </c>
+      <c r="BA4" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1378,6 +1602,54 @@
       <c r="AZ5" t="n">
         <v>31</v>
       </c>
+      <c r="BA5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1548,6 +1820,54 @@
       <c r="AZ6" t="n">
         <v>9</v>
       </c>
+      <c r="BA6" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1718,6 +2038,54 @@
       <c r="AZ7" t="n">
         <v>12</v>
       </c>
+      <c r="BA7" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1888,6 +2256,54 @@
       <c r="AZ8" t="n">
         <v>9</v>
       </c>
+      <c r="BA8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2058,6 +2474,54 @@
       <c r="AZ9" t="n">
         <v>6</v>
       </c>
+      <c r="BA9" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2228,6 +2692,54 @@
       <c r="AZ10" t="n">
         <v>22</v>
       </c>
+      <c r="BA10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2398,6 +2910,54 @@
       <c r="AZ11" t="n">
         <v>5</v>
       </c>
+      <c r="BA11" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>2.11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2568,6 +3128,54 @@
       <c r="AZ12" t="n">
         <v>6</v>
       </c>
+      <c r="BA12" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>2.15</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2738,6 +3346,54 @@
       <c r="AZ13" t="n">
         <v>7</v>
       </c>
+      <c r="BA13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>1.68</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2908,6 +3564,54 @@
       <c r="AZ14" t="n">
         <v>5</v>
       </c>
+      <c r="BA14" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>1.87</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -3078,6 +3782,54 @@
       <c r="AZ15" t="n">
         <v>6</v>
       </c>
+      <c r="BA15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3248,6 +4000,54 @@
       <c r="AZ16" t="n">
         <v>13</v>
       </c>
+      <c r="BA16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3418,6 +4218,54 @@
       <c r="AZ17" t="n">
         <v>2</v>
       </c>
+      <c r="BA17" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -3588,6 +4436,54 @@
       <c r="AZ18" t="n">
         <v>17</v>
       </c>
+      <c r="BA18" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>15</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3758,6 +4654,54 @@
       <c r="AZ19" t="n">
         <v>11</v>
       </c>
+      <c r="BA19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3928,6 +4872,54 @@
       <c r="AZ20" t="n">
         <v>18</v>
       </c>
+      <c r="BA20" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -4098,6 +5090,54 @@
       <c r="AZ21" t="n">
         <v>16</v>
       </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>1.66</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -4268,6 +5308,54 @@
       <c r="AZ22" t="n">
         <v>12</v>
       </c>
+      <c r="BA22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -4438,6 +5526,54 @@
       <c r="AZ23" t="n">
         <v>18</v>
       </c>
+      <c r="BA23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -4608,6 +5744,54 @@
       <c r="AZ24" t="n">
         <v>11</v>
       </c>
+      <c r="BA24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -4778,6 +5962,54 @@
       <c r="AZ25" t="n">
         <v>5</v>
       </c>
+      <c r="BA25" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>1.76</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -4948,6 +6180,54 @@
       <c r="AZ26" t="n">
         <v>9</v>
       </c>
+      <c r="BA26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>1.87</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -5118,6 +6398,54 @@
       <c r="AZ27" t="n">
         <v>4</v>
       </c>
+      <c r="BA27" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>1.92</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -5288,6 +6616,54 @@
       <c r="AZ28" t="n">
         <v>6</v>
       </c>
+      <c r="BA28" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -5458,6 +6834,54 @@
       <c r="AZ29" t="n">
         <v>14</v>
       </c>
+      <c r="BA29" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -5628,6 +7052,54 @@
       <c r="AZ30" t="n">
         <v>15</v>
       </c>
+      <c r="BA30" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -5798,6 +7270,54 @@
       <c r="AZ31" t="n">
         <v>12</v>
       </c>
+      <c r="BA31" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>1.59</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -5968,6 +7488,54 @@
       <c r="AZ32" t="n">
         <v>8</v>
       </c>
+      <c r="BA32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -6138,6 +7706,54 @@
       <c r="AZ33" t="n">
         <v>13</v>
       </c>
+      <c r="BA33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -6308,6 +7924,54 @@
       <c r="AZ34" t="n">
         <v>16</v>
       </c>
+      <c r="BA34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -6478,6 +8142,54 @@
       <c r="AZ35" t="n">
         <v>24</v>
       </c>
+      <c r="BA35" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -6648,6 +8360,54 @@
       <c r="AZ36" t="n">
         <v>12</v>
       </c>
+      <c r="BA36" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -6818,6 +8578,54 @@
       <c r="AZ37" t="n">
         <v>12</v>
       </c>
+      <c r="BA37" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP37" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -6988,6 +8796,54 @@
       <c r="AZ38" t="n">
         <v>9</v>
       </c>
+      <c r="BA38" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -7158,6 +9014,54 @@
       <c r="AZ39" t="n">
         <v>8</v>
       </c>
+      <c r="BA39" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BP39" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -7328,6 +9232,54 @@
       <c r="AZ40" t="n">
         <v>15</v>
       </c>
+      <c r="BA40" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP40" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -7498,6 +9450,54 @@
       <c r="AZ41" t="n">
         <v>14</v>
       </c>
+      <c r="BA41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP41" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -7668,6 +9668,54 @@
       <c r="AZ42" t="n">
         <v>16</v>
       </c>
+      <c r="BA42" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BP42" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -7838,6 +9886,54 @@
       <c r="AZ43" t="n">
         <v>8</v>
       </c>
+      <c r="BA43" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BP43" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -8008,6 +10104,54 @@
       <c r="AZ44" t="n">
         <v>4</v>
       </c>
+      <c r="BA44" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BP44" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -8178,6 +10322,54 @@
       <c r="AZ45" t="n">
         <v>20</v>
       </c>
+      <c r="BA45" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BP45" t="n">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -8348,6 +10540,54 @@
       <c r="AZ46" t="n">
         <v>17</v>
       </c>
+      <c r="BA46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -8518,6 +10758,54 @@
       <c r="AZ47" t="n">
         <v>0</v>
       </c>
+      <c r="BA47" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -8688,6 +10976,54 @@
       <c r="AZ48" t="n">
         <v>3</v>
       </c>
+      <c r="BA48" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -8858,6 +11194,54 @@
       <c r="AZ49" t="n">
         <v>11</v>
       </c>
+      <c r="BA49" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -9028,6 +11412,54 @@
       <c r="AZ50" t="n">
         <v>10</v>
       </c>
+      <c r="BA50" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -9198,6 +11630,54 @@
       <c r="AZ51" t="n">
         <v>11</v>
       </c>
+      <c r="BA51" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -9368,6 +11848,54 @@
       <c r="AZ52" t="n">
         <v>10</v>
       </c>
+      <c r="BA52" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -9538,6 +12066,54 @@
       <c r="AZ53" t="n">
         <v>10</v>
       </c>
+      <c r="BA53" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -9708,6 +12284,54 @@
       <c r="AZ54" t="n">
         <v>12</v>
       </c>
+      <c r="BA54" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -9878,6 +12502,54 @@
       <c r="AZ55" t="n">
         <v>21</v>
       </c>
+      <c r="BA55" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -10048,6 +12720,54 @@
       <c r="AZ56" t="n">
         <v>9</v>
       </c>
+      <c r="BA56" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -10218,6 +12938,54 @@
       <c r="AZ57" t="n">
         <v>16</v>
       </c>
+      <c r="BA57" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -10388,6 +13156,54 @@
       <c r="AZ58" t="n">
         <v>13</v>
       </c>
+      <c r="BA58" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -10558,6 +13374,54 @@
       <c r="AZ59" t="n">
         <v>12</v>
       </c>
+      <c r="BA59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -10728,6 +13592,54 @@
       <c r="AZ60" t="n">
         <v>3</v>
       </c>
+      <c r="BA60" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -10898,6 +13810,54 @@
       <c r="AZ61" t="n">
         <v>11</v>
       </c>
+      <c r="BA61" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -11068,6 +14028,54 @@
       <c r="AZ62" t="n">
         <v>15</v>
       </c>
+      <c r="BA62" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -11238,6 +14246,54 @@
       <c r="AZ63" t="n">
         <v>19</v>
       </c>
+      <c r="BA63" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -11408,6 +14464,54 @@
       <c r="AZ64" t="n">
         <v>13</v>
       </c>
+      <c r="BA64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -11578,6 +14682,54 @@
       <c r="AZ65" t="n">
         <v>12</v>
       </c>
+      <c r="BA65" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -11748,6 +14900,54 @@
       <c r="AZ66" t="n">
         <v>23</v>
       </c>
+      <c r="BA66" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -11918,6 +15118,54 @@
       <c r="AZ67" t="n">
         <v>13</v>
       </c>
+      <c r="BA67" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -12088,6 +15336,54 @@
       <c r="AZ68" t="n">
         <v>14</v>
       </c>
+      <c r="BA68" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -12258,6 +15554,54 @@
       <c r="AZ69" t="n">
         <v>19</v>
       </c>
+      <c r="BA69" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -12428,6 +15772,54 @@
       <c r="AZ70" t="n">
         <v>8</v>
       </c>
+      <c r="BA70" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -12598,6 +15990,54 @@
       <c r="AZ71" t="n">
         <v>3</v>
       </c>
+      <c r="BA71" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -12768,6 +16208,54 @@
       <c r="AZ72" t="n">
         <v>16</v>
       </c>
+      <c r="BA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -12938,6 +16426,54 @@
       <c r="AZ73" t="n">
         <v>11</v>
       </c>
+      <c r="BA73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -13108,6 +16644,54 @@
       <c r="AZ74" t="n">
         <v>18</v>
       </c>
+      <c r="BA74" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -13278,6 +16862,54 @@
       <c r="AZ75" t="n">
         <v>12</v>
       </c>
+      <c r="BA75" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -13448,6 +17080,54 @@
       <c r="AZ76" t="n">
         <v>3</v>
       </c>
+      <c r="BA76" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -13618,6 +17298,54 @@
       <c r="AZ77" t="n">
         <v>11</v>
       </c>
+      <c r="BA77" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -13788,6 +17516,54 @@
       <c r="AZ78" t="n">
         <v>15</v>
       </c>
+      <c r="BA78" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -13958,6 +17734,54 @@
       <c r="AZ79" t="n">
         <v>8</v>
       </c>
+      <c r="BA79" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -14128,6 +17952,54 @@
       <c r="AZ80" t="n">
         <v>11</v>
       </c>
+      <c r="BA80" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -14298,6 +18170,54 @@
       <c r="AZ81" t="n">
         <v>15</v>
       </c>
+      <c r="BA81" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -14468,6 +18388,54 @@
       <c r="AZ82" t="n">
         <v>22</v>
       </c>
+      <c r="BA82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP82" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -14638,6 +18606,54 @@
       <c r="AZ83" t="n">
         <v>23</v>
       </c>
+      <c r="BA83" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP83" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -14808,6 +18824,54 @@
       <c r="AZ84" t="n">
         <v>17</v>
       </c>
+      <c r="BA84" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -14978,6 +19042,54 @@
       <c r="AZ85" t="n">
         <v>24</v>
       </c>
+      <c r="BA85" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -15148,6 +19260,54 @@
       <c r="AZ86" t="n">
         <v>3</v>
       </c>
+      <c r="BA86" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -15318,6 +19478,54 @@
       <c r="AZ87" t="n">
         <v>8</v>
       </c>
+      <c r="BA87" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BL87" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BP87" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -15488,6 +19696,54 @@
       <c r="AZ88" t="n">
         <v>19</v>
       </c>
+      <c r="BA88" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -15658,6 +19914,54 @@
       <c r="AZ89" t="n">
         <v>9</v>
       </c>
+      <c r="BA89" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -15828,6 +20132,54 @@
       <c r="AZ90" t="n">
         <v>20</v>
       </c>
+      <c r="BA90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>23</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>23</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -15998,6 +20350,54 @@
       <c r="AZ91" t="n">
         <v>18</v>
       </c>
+      <c r="BA91" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -16168,6 +20568,54 @@
       <c r="AZ92" t="n">
         <v>4</v>
       </c>
+      <c r="BA92" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -16338,6 +20786,54 @@
       <c r="AZ93" t="n">
         <v>5</v>
       </c>
+      <c r="BA93" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -16508,6 +21004,54 @@
       <c r="AZ94" t="n">
         <v>15</v>
       </c>
+      <c r="BA94" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -16678,6 +21222,54 @@
       <c r="AZ95" t="n">
         <v>5</v>
       </c>
+      <c r="BA95" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -16848,6 +21440,54 @@
       <c r="AZ96" t="n">
         <v>14</v>
       </c>
+      <c r="BA96" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -17018,6 +21658,54 @@
       <c r="AZ97" t="n">
         <v>14</v>
       </c>
+      <c r="BA97" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO97" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BP97" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -17188,6 +21876,54 @@
       <c r="AZ98" t="n">
         <v>12</v>
       </c>
+      <c r="BA98" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -17358,6 +22094,54 @@
       <c r="AZ99" t="n">
         <v>27</v>
       </c>
+      <c r="BA99" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -17528,6 +22312,54 @@
       <c r="AZ100" t="n">
         <v>6</v>
       </c>
+      <c r="BA100" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -17698,6 +22530,54 @@
       <c r="AZ101" t="n">
         <v>14</v>
       </c>
+      <c r="BA101" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -17868,6 +22748,54 @@
       <c r="AZ102" t="n">
         <v>14</v>
       </c>
+      <c r="BA102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -18038,6 +22966,54 @@
       <c r="AZ103" t="n">
         <v>6</v>
       </c>
+      <c r="BA103" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -18208,6 +23184,54 @@
       <c r="AZ104" t="n">
         <v>14</v>
       </c>
+      <c r="BA104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -18378,6 +23402,54 @@
       <c r="AZ105" t="n">
         <v>15</v>
       </c>
+      <c r="BA105" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -18548,6 +23620,54 @@
       <c r="AZ106" t="n">
         <v>13</v>
       </c>
+      <c r="BA106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -18718,6 +23838,54 @@
       <c r="AZ107" t="n">
         <v>5</v>
       </c>
+      <c r="BA107" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -18888,6 +24056,54 @@
       <c r="AZ108" t="n">
         <v>11</v>
       </c>
+      <c r="BA108" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -19058,6 +24274,54 @@
       <c r="AZ109" t="n">
         <v>14</v>
       </c>
+      <c r="BA109" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -19228,6 +24492,54 @@
       <c r="AZ110" t="n">
         <v>14</v>
       </c>
+      <c r="BA110" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -19398,6 +24710,54 @@
       <c r="AZ111" t="n">
         <v>12</v>
       </c>
+      <c r="BA111" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -19568,6 +24928,54 @@
       <c r="AZ112" t="n">
         <v>11</v>
       </c>
+      <c r="BA112" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -19738,6 +25146,54 @@
       <c r="AZ113" t="n">
         <v>16</v>
       </c>
+      <c r="BA113" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -19908,6 +25364,54 @@
       <c r="AZ114" t="n">
         <v>10</v>
       </c>
+      <c r="BA114" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -20078,6 +25582,54 @@
       <c r="AZ115" t="n">
         <v>12</v>
       </c>
+      <c r="BA115" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -20248,6 +25800,54 @@
       <c r="AZ116" t="n">
         <v>11</v>
       </c>
+      <c r="BA116" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -20418,6 +26018,54 @@
       <c r="AZ117" t="n">
         <v>12</v>
       </c>
+      <c r="BA117" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -20588,6 +26236,54 @@
       <c r="AZ118" t="n">
         <v>13</v>
       </c>
+      <c r="BA118" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -20758,6 +26454,54 @@
       <c r="AZ119" t="n">
         <v>9</v>
       </c>
+      <c r="BA119" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -20928,6 +26672,54 @@
       <c r="AZ120" t="n">
         <v>17</v>
       </c>
+      <c r="BA120" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -21098,6 +26890,54 @@
       <c r="AZ121" t="n">
         <v>6</v>
       </c>
+      <c r="BA121" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -21268,6 +27108,54 @@
       <c r="AZ122" t="n">
         <v>8</v>
       </c>
+      <c r="BA122" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -21438,6 +27326,54 @@
       <c r="AZ123" t="n">
         <v>23</v>
       </c>
+      <c r="BA123" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -21608,6 +27544,54 @@
       <c r="AZ124" t="n">
         <v>10</v>
       </c>
+      <c r="BA124" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -21778,6 +27762,54 @@
       <c r="AZ125" t="n">
         <v>9</v>
       </c>
+      <c r="BA125" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -21948,6 +27980,54 @@
       <c r="AZ126" t="n">
         <v>8</v>
       </c>
+      <c r="BA126" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -22118,6 +28198,54 @@
       <c r="AZ127" t="n">
         <v>17</v>
       </c>
+      <c r="BA127" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -22288,6 +28416,54 @@
       <c r="AZ128" t="n">
         <v>12</v>
       </c>
+      <c r="BA128" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -22458,6 +28634,54 @@
       <c r="AZ129" t="n">
         <v>9</v>
       </c>
+      <c r="BA129" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -22628,6 +28852,54 @@
       <c r="AZ130" t="n">
         <v>7</v>
       </c>
+      <c r="BA130" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -22798,6 +29070,54 @@
       <c r="AZ131" t="n">
         <v>18</v>
       </c>
+      <c r="BA131" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL131" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BM131" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BN131" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO131" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP131" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -22968,6 +29288,54 @@
       <c r="AZ132" t="n">
         <v>9</v>
       </c>
+      <c r="BA132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -23138,6 +29506,54 @@
       <c r="AZ133" t="n">
         <v>15</v>
       </c>
+      <c r="BA133" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -23308,6 +29724,54 @@
       <c r="AZ134" t="n">
         <v>9</v>
       </c>
+      <c r="BA134" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -23478,6 +29942,54 @@
       <c r="AZ135" t="n">
         <v>13</v>
       </c>
+      <c r="BA135" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -23648,6 +30160,54 @@
       <c r="AZ136" t="n">
         <v>17</v>
       </c>
+      <c r="BA136" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -23818,6 +30378,54 @@
       <c r="AZ137" t="n">
         <v>13</v>
       </c>
+      <c r="BA137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -23988,6 +30596,54 @@
       <c r="AZ138" t="n">
         <v>11</v>
       </c>
+      <c r="BA138" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -24158,6 +30814,54 @@
       <c r="AZ139" t="n">
         <v>16</v>
       </c>
+      <c r="BA139" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -24328,6 +31032,54 @@
       <c r="AZ140" t="n">
         <v>13</v>
       </c>
+      <c r="BA140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -24498,6 +31250,54 @@
       <c r="AZ141" t="n">
         <v>16</v>
       </c>
+      <c r="BA141" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -24668,6 +31468,54 @@
       <c r="AZ142" t="n">
         <v>3</v>
       </c>
+      <c r="BA142" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -24838,6 +31686,54 @@
       <c r="AZ143" t="n">
         <v>7</v>
       </c>
+      <c r="BA143" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -25008,6 +31904,54 @@
       <c r="AZ144" t="n">
         <v>14</v>
       </c>
+      <c r="BA144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -25178,6 +32122,54 @@
       <c r="AZ145" t="n">
         <v>17</v>
       </c>
+      <c r="BA145" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -25348,6 +32340,54 @@
       <c r="AZ146" t="n">
         <v>11</v>
       </c>
+      <c r="BA146" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -25518,6 +32558,54 @@
       <c r="AZ147" t="n">
         <v>11</v>
       </c>
+      <c r="BA147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -25687,6 +32775,54 @@
       </c>
       <c r="AZ148" t="n">
         <v>14</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP148" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
